--- a/biology/Botanique/Privet/Privet.xlsx
+++ b/biology/Botanique/Privet/Privet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Troène robuste, Troène de Ceylan, Privet
 Le Troène robuste (Ligustrum robustum), communément appelé Troène de Ceylan ou Privet, est une espèce de plantes à fleurs de la famille des Oleaceae et du genre Ligustrum.
-Le Troène robuste a été introduit à La Réunion pour faire des haies dans les années 1950, et il est devenu envahissant (comme à l'Île Maurice) dans des zones d’altitude comme Cilaos[2]. Ligustrum robustum figure dans la liste des « cent pires espèces envahissantes du monde ».
+Le Troène robuste a été introduit à La Réunion pour faire des haies dans les années 1950, et il est devenu envahissant (comme à l'Île Maurice) dans des zones d’altitude comme Cilaos. Ligustrum robustum figure dans la liste des « cent pires espèces envahissantes du monde ».
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des taxons de rang inférieur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste des sous-espèces selon GBIF       (23 juin 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces selon GBIF       (23 juin 2021) :
 Ligustrum robustum subsp. perrottetii (A.DC.) de Juana
 Ligustrum robustum subsp. robustum
 Ligustrum robustum subsp. walkeri (Decne.) P.S.Green</t>
@@ -546,11 +560,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce a été initialement classée dans le genre Phillyrea sous le basionyme Phillyrea robusta Roxb.[3].
-Elle se nomme en français « Troène robuste » ou « Privet »[1].
-Ligustrum robustum a pour synonymes[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'espèce a été initialement classée dans le genre Phillyrea sous le basionyme Phillyrea robusta Roxb..
+Elle se nomme en français « Troène robuste » ou « Privet ».
+Ligustrum robustum a pour synonymes :
 Olea robusta (Roxb.) Sweet
 Olea robusta (Roxb.) Wall., 1831
 Phillyrea robusta Roxb.
@@ -582,9 +598,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre « ligustrum » vient du latin ligare (« lier ») car les rameaux flexibles sont utilisés pour faire des cordes[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre « ligustrum » vient du latin ligare (« lier ») car les rameaux flexibles sont utilisés pour faire des cordes. 
 </t>
         </is>
       </c>
@@ -615,49 +633,58 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Ligustrum robustum est un arbuste d'environ 5 m de haut ou un petit arbre atteignant 10 m, bien qu'on ait observé des spécimens vieux de plus de cent ans et d'une hauteur de 15 m. Les feuilles simples et entières ont des pétioles courts[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ligustrum robustum est un arbuste d'environ 5 m de haut ou un petit arbre atteignant 10 m, bien qu'on ait observé des spécimens vieux de plus de cent ans et d'une hauteur de 15 m. Les feuilles simples et entières ont des pétioles courts.
 			Branches.
 			Rameaux feuillés.
-Appareil reproducteur
-Les inflorescences sont terminales et en groupes. Les fleurs sont très petites avec un calice dentée avec deux étamines[2]. Le fruit de l'arbuste est une baie ellipsoïde, bleu-violet à pleine maturité, longue de 7 à 10 mm et large de 4 à 5 mm[4],[5],[6].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Privet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Privet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont terminales et en groupes. Les fleurs sont très petites avec un calice dentée avec deux étamines. Le fruit de l'arbuste est une baie ellipsoïde, bleu-violet à pleine maturité, longue de 7 à 10 mm et large de 4 à 5 mm.
 			Inflorescence.
 			Fleurs.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Privet</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Privet</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Écologie</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’oiseau Bulbul (Pycnonotus jocosus) aide à la dispersion de la plante en se nourrissant de ses fruits, ce qui dissémine les graines[2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
@@ -679,13 +706,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Habitat et distribution</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ligustrum robustum est originaire d'Asie du Sud et du Sud-Est (Sri Lanka, Inde, Bangladesh, Birmanie, Cambodge, Thaïlande, Laos, Vietnam) mais s'est naturalisé dans d'autres pays. Il a été introduit à l'Île Maurice à la fin du XIXe siècle et à La Réunion dans les années 1950[2], où il est devenu une espèce envahissante majeure.
-A Maurice, cette plante préfère les plaines du haut de l’île de la région de Curepipe[2].
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’oiseau Bulbul (Pycnonotus jocosus) aide à la dispersion de la plante en se nourrissant de ses fruits, ce qui dissémine les graines.
 </t>
         </is>
       </c>
@@ -711,17 +739,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Espèce envahissante</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ligustrum robustum figure parmi les « cent pires espèces envahissantes du monde ». Il est devenu envahissant à Maurice (Lorence et Sussman, 1988) et dans d’autres îles des Mascareignes, depuis longtemps[2]. 
-Mesures d'éradication
-Méthodes biologiques
-Un papillon (Epiplema albida) et deux coléoptères (Dermorhytis ornatissima et Dermorhytis lewisi) sont testés pour des programmes de lutte biologique à La Réunion mais n'ont pas encore été relâchés. Les autres lépidoptères qui se nourrissent de cette plante sont Brahmaea wallichii, Pangrapta grisangula[7] et Dolbina inexacta.
-Méthodes chimiques
-Pour la lutte chimique, on utilise des herbicides, le glyphosate et le metsulfuron (en) [2].
+          <t>Habitat et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ligustrum robustum est originaire d'Asie du Sud et du Sud-Est (Sri Lanka, Inde, Bangladesh, Birmanie, Cambodge, Thaïlande, Laos, Vietnam) mais s'est naturalisé dans d'autres pays. Il a été introduit à l'Île Maurice à la fin du XIXe siècle et à La Réunion dans les années 1950, où il est devenu une espèce envahissante majeure.
+A Maurice, cette plante préfère les plaines du haut de l’île de la région de Curepipe.
 </t>
         </is>
       </c>
@@ -747,12 +773,129 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Espèce envahissante</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ligustrum robustum figure parmi les « cent pires espèces envahissantes du monde ». Il est devenu envahissant à Maurice (Lorence et Sussman, 1988) et dans d’autres îles des Mascareignes, depuis longtemps. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Privet</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Privet</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Espèce envahissante</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mesures d'éradication</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Méthodes biologiques</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un papillon (Epiplema albida) et deux coléoptères (Dermorhytis ornatissima et Dermorhytis lewisi) sont testés pour des programmes de lutte biologique à La Réunion mais n'ont pas encore été relâchés. Les autres lépidoptères qui se nourrissent de cette plante sont Brahmaea wallichii, Pangrapta grisangula et Dolbina inexacta.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Privet</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Privet</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Espèce envahissante</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Mesures d'éradication</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Méthodes chimiques</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour la lutte chimique, on utilise des herbicides, le glyphosate et le metsulfuron (en) .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Privet</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Privet</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est apparemment mortelle pour les chevaux qui l'ingèrent[2].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est apparemment mortelle pour les chevaux qui l'ingèrent.
 </t>
         </is>
       </c>
